--- a/results/MMR results/gamm_mmr_param_overall.xlsx
+++ b/results/MMR results/gamm_mmr_param_overall.xlsx
@@ -9,26 +9,6 @@
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t xml:space="preserve">terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fish_basin</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,36 +337,7 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.148400447970578</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.862086973781376</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
